--- a/Energy Data and Model Platform/information for platforms.xlsx
+++ b/Energy Data and Model Platform/information for platforms.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F2F9110C1DE1D7208CB624FCD4C35A6CD72CD82D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A0BC2E7-2D56-4673-B29A-69FD48E848D6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="model" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="model" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="542">
   <si>
     <t xml:space="preserve">name </t>
   </si>
@@ -38,10 +40,6 @@
     <t xml:space="preserve">open power system data </t>
   </si>
   <si>
-    <t xml:space="preserve">open power system data </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">True </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,10 +73,6 @@
   </si>
   <si>
     <t xml:space="preserve">data time resolution </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data spatical resolution</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -283,6 +277,7 @@
         <sz val="11"/>
         <color theme="10"/>
         <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t> </t>
@@ -545,18 +540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">wind and solar time series </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">weather time series data </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attached a detail excel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.renewables.ninja/about</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -650,9 +633,6 @@
     <t>website, GitHub</t>
   </si>
   <si>
-    <t>power sector modeling</t>
-  </si>
-  <si>
     <t>DIETER</t>
   </si>
   <si>
@@ -665,9 +645,6 @@
     <t>GAMS</t>
   </si>
   <si>
-    <t>publication</t>
-  </si>
-  <si>
     <t>dispatch and investment</t>
   </si>
   <si>
@@ -683,21 +660,9 @@
     <t>European transmission and dispatch</t>
   </si>
   <si>
-    <t>EMLab-Generation</t>
-  </si>
-  <si>
-    <t>Delft University of Technology</t>
-  </si>
-  <si>
     <t>Apache 2.0</t>
   </si>
   <si>
-    <t>manual, website</t>
-  </si>
-  <si>
-    <t>agent-based</t>
-  </si>
-  <si>
     <t>EMMA</t>
   </si>
   <si>
@@ -991,21 +956,6 @@
   <si>
     <t xml:space="preserve">Open Energy models </t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>agent‑based</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF3F3F3F"/>
-        <rFont val="等线"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> electricity market modeling</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1017,6 +967,7 @@
         <sz val="11"/>
         <color rgb="FF3F3F3F"/>
         <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t> (on Rails)</t>
@@ -1032,6 +983,7 @@
         <sz val="11"/>
         <color rgb="FF3F3F3F"/>
         <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>, Julia</t>
@@ -1047,6 +999,7 @@
         <sz val="11"/>
         <color rgb="FF3F3F3F"/>
         <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t> Joint Research Centre</t>
@@ -1062,6 +1015,7 @@
         <sz val="11"/>
         <color rgb="FF3F3F3F"/>
         <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>, Python</t>
@@ -1077,6 +1031,7 @@
         <sz val="11"/>
         <color rgb="FF3F3F3F"/>
         <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t> market</t>
@@ -1092,6 +1047,7 @@
         <sz val="11"/>
         <color rgb="FF3F3F3F"/>
         <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>sector coupling</t>
@@ -1107,6 +1063,7 @@
         <sz val="11"/>
         <color rgb="FF3F3F3F"/>
         <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t> and Princeton University</t>
@@ -1122,6 +1079,7 @@
         <sz val="11"/>
         <color rgb="FF3F3F3F"/>
         <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>, MySQL</t>
@@ -1137,6 +1095,7 @@
         <sz val="11"/>
         <color rgb="FF3F3F3F"/>
         <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>, UCD</t>
@@ -1152,6 +1111,7 @@
         <sz val="11"/>
         <color rgb="FF3F3F3F"/>
         <rFont val="等线"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>/VBA</t>
@@ -1663,12 +1623,478 @@
     <t>https://github.com/ShengrenHou/DRL-for-Energy-Systems-Optimal-Scheduling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>data spatial resolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Europe Gaint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://euprogigant.portal.minimal-gaia-x.eu/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlexMeasures </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://flexmeasures.io/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quintel </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://quintel.com/etm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/smart-data-models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Github</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Furture scenario analysis </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a model based on macro data to analyze the future energy scenarios. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Seita </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Website </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy management problem </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a detailed platform for reaching seita goal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">binational project </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data and model platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">For industry ecosystem, but the structure and how they run with Giat-X is interesting, users need to pay if they want to access the algorithm or data. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Agent‑based</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> electricity market modeling</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power sector modeling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dispatch and investment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerGridModel</t>
+  </si>
+  <si>
+    <t>PowerGridModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alliander</t>
+  </si>
+  <si>
+    <t>Alliander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python, C++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Website </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicated paper </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proprietary software</t>
+  </si>
+  <si>
+    <t>Proprietary software</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Website</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name </t>
+  </si>
+  <si>
+    <t>Scope </t>
+  </si>
+  <si>
+    <t>Description </t>
+  </si>
+  <si>
+    <t>Open power system data </t>
+  </si>
+  <si>
+    <t>Mixed data platform</t>
+  </si>
+  <si>
+    <t>Standarized open power system data platform </t>
+  </si>
+  <si>
+    <t>ENTSO-E Transparency </t>
+  </si>
+  <si>
+    <t>The central data platform of the European transmission system operators</t>
+  </si>
+  <si>
+    <t>AG Energiebilanzen.</t>
+  </si>
+  <si>
+    <t>Electricity consumption</t>
+  </si>
+  <si>
+    <t>Yearly energy balances for Germany, including yearly electricity consumption by sector.</t>
+  </si>
+  <si>
+    <t>Statistisches Bundesamt</t>
+  </si>
+  <si>
+    <t>Monthly electricity, heat and gas consumpition for Germany </t>
+  </si>
+  <si>
+    <t>50 Hertz</t>
+  </si>
+  <si>
+    <t>Electricity consumption</t>
+  </si>
+  <si>
+    <t>Hourly wind generation (part of open power system data)</t>
+  </si>
+  <si>
+    <t>IRENA RE Capacity Statistics </t>
+  </si>
+  <si>
+    <t>Capacity </t>
+  </si>
+  <si>
+    <t>Installed renewable capacity since 2006 for all countries world-wide.   PDF.</t>
+  </si>
+  <si>
+    <t>Electric power statistics</t>
+  </si>
+  <si>
+    <t>2015 combined heat and power (CHP) data</t>
+  </si>
+  <si>
+    <t>EurObserv’ER Database. </t>
+  </si>
+  <si>
+    <t>Different renewable-related statistics in all EU members</t>
+  </si>
+  <si>
+    <t>IEA PVPS </t>
+  </si>
+  <si>
+    <t>Global solar PV capacities dating back to 1992</t>
+  </si>
+  <si>
+    <t>United Nations Statistics Division Energy   Statistics Database.</t>
+  </si>
+  <si>
+    <t>Annual capacity data </t>
+  </si>
+  <si>
+    <t>IEA monthly electricity statistics </t>
+  </si>
+  <si>
+    <t>Generation </t>
+  </si>
+  <si>
+    <t>Monthly electricity generation since 2007 by fuel category for OECD  </t>
+  </si>
+  <si>
+    <t>ENTSO-E production data  </t>
+  </si>
+  <si>
+    <t>Monthly generation by fuel </t>
+  </si>
+  <si>
+    <t>ENTSO-E Exchange data </t>
+  </si>
+  <si>
+    <t>Cross-border trade </t>
+  </si>
+  <si>
+    <t>Monthly electricity trade between EU countries </t>
+  </si>
+  <si>
+    <t>ENTSO-E Statistical Factsheet </t>
+  </si>
+  <si>
+    <t>Annual data on installed capacity as well as generation and physical   flows by technology and country since 2009. PDF files. </t>
+  </si>
+  <si>
+    <t>energinet.dk</t>
+  </si>
+  <si>
+    <t>Price data </t>
+  </si>
+  <si>
+    <t>Fabulous website of the Danish TSO, providing day-ahead spot prices for   DE/AT, NO, SE, DK (all bidding zones), dating back to 2002.</t>
+  </si>
+  <si>
+    <t>Power Exchanges </t>
+  </si>
+  <si>
+    <t>DE imbalance price (amprion)</t>
+  </si>
+  <si>
+    <t>Balancing price data </t>
+  </si>
+  <si>
+    <t>Unbalanced data and price for 15mins</t>
+  </si>
+  <si>
+    <t>RTE</t>
+  </si>
+  <si>
+    <t>Generation, consumption, market and network data</t>
+  </si>
+  <si>
+    <t>Ninja renewable energy</t>
+  </si>
+  <si>
+    <t>Wind and solar time series data </t>
+  </si>
+  <si>
+    <t>Run simulations of the hourly power output from wind and solar power plants located anywhere in the world.</t>
+  </si>
+  <si>
+    <t>German   Aerospace Center</t>
+  </si>
+  <si>
+    <t>Agent‑based electricity market modeling</t>
+  </si>
+  <si>
+    <t>Breakthrough   Energy Foundation</t>
+  </si>
+  <si>
+    <t>Python, Julia</t>
+  </si>
+  <si>
+    <t>website,   GitHub</t>
+  </si>
+  <si>
+    <t>Power   sector modeling</t>
+  </si>
+  <si>
+    <t>DIW   Berlin</t>
+  </si>
+  <si>
+    <t>Download</t>
+  </si>
+  <si>
+    <t>Publicated   paper </t>
+  </si>
+  <si>
+    <t>Dispatch   and investment</t>
+  </si>
+  <si>
+    <t>EC Joint Research Centre</t>
+  </si>
+  <si>
+    <t>GAMS, Python</t>
+  </si>
+  <si>
+    <t>European   transmission and dispatch</t>
+  </si>
+  <si>
+    <t>Apache   2.0</t>
+  </si>
+  <si>
+    <t>Python,   C++</t>
+  </si>
+  <si>
+    <t>Website </t>
+  </si>
+  <si>
+    <t>Neon   Neue Energieökonomik</t>
+  </si>
+  <si>
+    <t>CC   BY-SA 3.0</t>
+  </si>
+  <si>
+    <t>electricity   market</t>
+  </si>
+  <si>
+    <t>RWTH   Aachen University</t>
+  </si>
+  <si>
+    <t>European   electricity system</t>
+  </si>
+  <si>
+    <t>University   of New South Wales</t>
+  </si>
+  <si>
+    <t>website,   list</t>
+  </si>
+  <si>
+    <t>Australian   NEM market</t>
+  </si>
+  <si>
+    <t>KTH   Royal Institute of Technology</t>
+  </si>
+  <si>
+    <t>cost-effective   electrification</t>
+  </si>
+  <si>
+    <t>University of Kassel,</t>
+  </si>
+  <si>
+    <t>automated   power system analysis</t>
+  </si>
+  <si>
+    <t>Flexiblepower   Alliance Network</t>
+  </si>
+  <si>
+    <t>smart   grid</t>
+  </si>
+  <si>
+    <t>Erasmus   Centre for Future Energy Business</t>
+  </si>
+  <si>
+    <t>website,   forum</t>
+  </si>
+  <si>
+    <t>automated   retail electricity trading simulation</t>
+  </si>
+  <si>
+    <t>University   of Flensburg</t>
+  </si>
+  <si>
+    <t>Invitation</t>
+  </si>
+  <si>
+    <t>R, MySQL</t>
+  </si>
+  <si>
+    <t>renewables   pathways</t>
+  </si>
+  <si>
+    <t>DLR   Institute of Networked Energy Systems</t>
+  </si>
+  <si>
+    <t>website,   newsletter</t>
+  </si>
+  <si>
+    <t>European   transmission grid</t>
+  </si>
+  <si>
+    <t>Sustainable   Energy Now</t>
+  </si>
+  <si>
+    <t>renewable   generation</t>
+  </si>
+  <si>
+    <t>University   of Hawai'i</t>
+  </si>
+  <si>
+    <t>optimal   planning</t>
+  </si>
+  <si>
+    <t>Technical   University of Munich</t>
+  </si>
+  <si>
+    <t>distributed   energy systems</t>
+  </si>
+  <si>
+    <t>RLOESS </t>
+  </si>
+  <si>
+    <t>TU Delft </t>
+  </si>
+  <si>
+    <t>MIT License </t>
+  </si>
+  <si>
+    <t>Github </t>
+  </si>
+  <si>
+    <t>Python </t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Europe   Gaint</t>
+  </si>
+  <si>
+    <t>binational project </t>
+  </si>
+  <si>
+    <t>Data and model platform</t>
+  </si>
+  <si>
+    <t>FlexMeasures </t>
+  </si>
+  <si>
+    <t>Seita </t>
+  </si>
+  <si>
+    <t>Energy management problem </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1702,6 +2128,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1709,6 +2136,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1732,6 +2160,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1744,10 +2173,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1768,6 +2213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEAECF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECF4FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1884,7 +2335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1927,6 +2378,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1954,9 +2426,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="2" builtinId="21"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="输出" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2233,16 +2705,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="93.44140625" customWidth="1"/>
     <col min="2" max="2" width="83.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="206.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
@@ -2254,36 +2726,36 @@
     <col min="15" max="15" width="213" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="21" thickBot="1">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>3</v>
@@ -2292,1115 +2764,1087 @@
         <v>2</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="14.4" thickBot="1">
-      <c r="A2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="14.4" thickBot="1">
-      <c r="A3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>372</v>
+      </c>
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>384</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="14.4" thickBot="1">
-      <c r="A4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>385</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="14.4" thickBot="1">
-      <c r="A5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>386</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
       </c>
       <c r="O5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="14.4" thickBot="1">
-      <c r="A6" s="4" t="s">
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>375</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>56</v>
       </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="14.4" thickBot="1">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
         <v>57</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" t="s">
         <v>60</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" t="s">
-        <v>388</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="14.4" thickBot="1">
-      <c r="A8" s="4" t="s">
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" t="s">
         <v>66</v>
-      </c>
-      <c r="E8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" t="s">
-        <v>68</v>
       </c>
       <c r="G8" s="17">
         <v>2014</v>
       </c>
       <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>377</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>378</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
         <v>37</v>
       </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="L10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
         <v>79</v>
       </c>
-      <c r="K8" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="14.4" thickBot="1">
-      <c r="A9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>379</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>380</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>381</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>381</v>
+      </c>
+      <c r="H14" t="s">
         <v>71</v>
       </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
+        <v>381</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>382</v>
+      </c>
+      <c r="H16" t="s">
+        <v>383</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" t="s">
         <v>389</v>
       </c>
-      <c r="H9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="14.4" thickBot="1">
-      <c r="A10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>390</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="14.4" thickBot="1">
-      <c r="A11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="18" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>389</v>
+      </c>
+      <c r="H18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" t="s">
+        <v>388</v>
+      </c>
+      <c r="H19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" t="s">
-        <v>391</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="14.4" thickBot="1">
-      <c r="A12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" t="s">
-        <v>392</v>
-      </c>
-      <c r="H12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" t="s">
-        <v>92</v>
-      </c>
-      <c r="L12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="14.4" thickBot="1">
-      <c r="A13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" t="s">
-        <v>393</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="14.4" thickBot="1">
-      <c r="A14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" t="s">
-        <v>393</v>
-      </c>
-      <c r="H14" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="14.4" thickBot="1">
-      <c r="A15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" t="s">
-        <v>393</v>
-      </c>
-      <c r="H15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" t="s">
-        <v>92</v>
-      </c>
-      <c r="L15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="14.4" thickBot="1">
-      <c r="A16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" t="s">
-        <v>394</v>
-      </c>
-      <c r="H16" t="s">
-        <v>395</v>
-      </c>
-      <c r="I16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" t="s">
-        <v>6</v>
-      </c>
-      <c r="P16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="14.4" thickBot="1">
-      <c r="A17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="14.4" thickBot="1">
-      <c r="A18" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" t="s">
-        <v>401</v>
-      </c>
-      <c r="H18" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="14.4" thickBot="1">
-      <c r="A19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" t="s">
-        <v>400</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="L19" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" t="s">
         <v>126</v>
       </c>
-      <c r="I19" t="s">
+    </row>
+    <row r="20" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J19" t="s">
-        <v>53</v>
-      </c>
-      <c r="K19" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="14.4" thickBot="1">
-      <c r="A20" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
+        <v>388</v>
+      </c>
+      <c r="H20" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" t="s">
         <v>5</v>
       </c>
-      <c r="G20" t="s">
-        <v>400</v>
-      </c>
-      <c r="O20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="14.4" thickBot="1">
-      <c r="A21" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="21" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E21" t="s">
+        <v>303</v>
+      </c>
+      <c r="F21" t="s">
+        <v>304</v>
+      </c>
+      <c r="G21" t="s">
+        <v>388</v>
+      </c>
+      <c r="H21" t="s">
+        <v>305</v>
+      </c>
+      <c r="I21" t="s">
+        <v>306</v>
+      </c>
+      <c r="J21" t="s">
+        <v>307</v>
+      </c>
+      <c r="K21" t="s">
+        <v>308</v>
+      </c>
+      <c r="L21" t="s">
         <v>5</v>
       </c>
-      <c r="G21" t="s">
-        <v>400</v>
-      </c>
-      <c r="O21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="14.4" thickBot="1">
-      <c r="A22" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" t="s">
-        <v>139</v>
+      <c r="M21" t="s">
+        <v>309</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>311</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>310</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" t="s">
-        <v>135</v>
+        <v>312</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>314</v>
       </c>
       <c r="G22" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="H22" t="s">
-        <v>136</v>
+        <v>315</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
       <c r="J22" t="s">
-        <v>137</v>
+        <v>316</v>
       </c>
       <c r="K22" t="s">
-        <v>138</v>
+        <v>317</v>
       </c>
       <c r="L22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="14.4" thickBot="1">
-      <c r="A23" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="M22" t="s">
+        <v>319</v>
+      </c>
+      <c r="N22" t="s">
         <v>311</v>
       </c>
-      <c r="B23" t="s">
-        <v>312</v>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>321</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="C23" t="s">
+        <v>322</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E23" t="s">
         <v>313</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E23" t="s">
-        <v>315</v>
-      </c>
       <c r="F23" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="G23" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="H23" t="s">
+        <v>325</v>
+      </c>
+      <c r="I23" t="s">
+        <v>306</v>
+      </c>
+      <c r="J23" t="s">
+        <v>326</v>
+      </c>
+      <c r="K23" t="s">
         <v>317</v>
       </c>
-      <c r="I23" t="s">
-        <v>318</v>
-      </c>
-      <c r="J23" t="s">
-        <v>319</v>
-      </c>
-      <c r="K23" t="s">
-        <v>320</v>
-      </c>
       <c r="L23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M23" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="B24" t="s">
         <v>323</v>
       </c>
+      <c r="O23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>330</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>329</v>
+      </c>
       <c r="C24" t="s">
-        <v>324</v>
+        <v>331</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E24" t="s">
+        <v>305</v>
       </c>
       <c r="F24" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G24" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="H24" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="I24" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="J24" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="K24" t="s">
+        <v>336</v>
+      </c>
+      <c r="L24" t="s">
+        <v>337</v>
+      </c>
+      <c r="M24" t="s">
+        <v>338</v>
+      </c>
+      <c r="O24" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>340</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="L24" t="s">
-        <v>330</v>
-      </c>
-      <c r="M24" t="s">
-        <v>331</v>
-      </c>
-      <c r="N24" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="20.399999999999999">
-      <c r="A25" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B25" t="s">
-        <v>333</v>
-      </c>
       <c r="C25" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E25" t="s">
+        <v>305</v>
+      </c>
+      <c r="F25" t="s">
+        <v>343</v>
+      </c>
+      <c r="G25" t="s">
+        <v>386</v>
+      </c>
+      <c r="H25" t="s">
+        <v>305</v>
+      </c>
+      <c r="I25" t="s">
+        <v>306</v>
+      </c>
+      <c r="J25" t="s">
+        <v>344</v>
+      </c>
+      <c r="K25" t="s">
+        <v>345</v>
+      </c>
+      <c r="L25" t="s">
+        <v>337</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C26" t="s">
+        <v>349</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E26" t="s">
+        <v>351</v>
+      </c>
+      <c r="F26" t="s">
+        <v>352</v>
+      </c>
+      <c r="G26" t="s">
+        <v>385</v>
+      </c>
+      <c r="H26" t="s">
+        <v>305</v>
+      </c>
+      <c r="I26" t="s">
+        <v>306</v>
+      </c>
+      <c r="J26" t="s">
         <v>335</v>
       </c>
-      <c r="E25" t="s">
-        <v>325</v>
-      </c>
-      <c r="F25" t="s">
-        <v>336</v>
-      </c>
-      <c r="G25" t="s">
-        <v>399</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="K26" t="s">
+        <v>317</v>
+      </c>
+      <c r="L26" t="s">
         <v>337</v>
       </c>
-      <c r="I25" t="s">
-        <v>318</v>
-      </c>
-      <c r="J25" t="s">
-        <v>338</v>
-      </c>
-      <c r="K25" t="s">
-        <v>329</v>
-      </c>
-      <c r="L25" t="s">
-        <v>6</v>
-      </c>
-      <c r="M25" t="s">
-        <v>339</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="O25" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B26" t="s">
-        <v>342</v>
-      </c>
-      <c r="C26" t="s">
-        <v>343</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="M26" t="s">
+        <v>353</v>
+      </c>
+      <c r="N26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>356</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C27" t="s">
+        <v>362</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E27" t="s">
+        <v>358</v>
+      </c>
+      <c r="F27" t="s">
+        <v>359</v>
+      </c>
+      <c r="G27" t="s">
+        <v>384</v>
+      </c>
+      <c r="H27" t="s">
+        <v>360</v>
+      </c>
+      <c r="I27" t="s">
+        <v>306</v>
+      </c>
+      <c r="J27" t="s">
+        <v>361</v>
+      </c>
+      <c r="K27" t="s">
         <v>317</v>
       </c>
-      <c r="F26" t="s">
-        <v>345</v>
-      </c>
-      <c r="G26" t="s">
-        <v>396</v>
-      </c>
-      <c r="H26" t="s">
-        <v>346</v>
-      </c>
-      <c r="I26" t="s">
-        <v>318</v>
-      </c>
-      <c r="J26" t="s">
-        <v>347</v>
-      </c>
-      <c r="K26" t="s">
-        <v>348</v>
-      </c>
-      <c r="L26" t="s">
-        <v>349</v>
-      </c>
-      <c r="M26" t="s">
-        <v>350</v>
-      </c>
-      <c r="O26" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B27" t="s">
-        <v>352</v>
-      </c>
-      <c r="C27" t="s">
-        <v>353</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="L27" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C28" t="s">
+        <v>365</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E28" t="s">
+        <v>367</v>
+      </c>
+      <c r="F28" t="s">
+        <v>359</v>
+      </c>
+      <c r="G28" t="s">
+        <v>384</v>
+      </c>
+      <c r="H28" t="s">
+        <v>368</v>
+      </c>
+      <c r="I28" t="s">
+        <v>306</v>
+      </c>
+      <c r="J28" t="s">
+        <v>361</v>
+      </c>
+      <c r="K28" t="s">
         <v>317</v>
       </c>
-      <c r="F27" t="s">
-        <v>355</v>
-      </c>
-      <c r="G27" t="s">
-        <v>398</v>
-      </c>
-      <c r="H27" t="s">
-        <v>317</v>
-      </c>
-      <c r="I27" t="s">
-        <v>318</v>
-      </c>
-      <c r="J27" t="s">
-        <v>356</v>
-      </c>
-      <c r="K27" t="s">
-        <v>357</v>
-      </c>
-      <c r="L27" t="s">
-        <v>349</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="C28" t="s">
-        <v>361</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E28" t="s">
-        <v>363</v>
-      </c>
-      <c r="F28" t="s">
-        <v>364</v>
-      </c>
-      <c r="G28" t="s">
-        <v>397</v>
-      </c>
-      <c r="H28" t="s">
-        <v>317</v>
-      </c>
-      <c r="I28" t="s">
-        <v>318</v>
-      </c>
-      <c r="J28" t="s">
-        <v>347</v>
-      </c>
-      <c r="K28" t="s">
-        <v>329</v>
-      </c>
       <c r="L28" t="s">
-        <v>349</v>
-      </c>
-      <c r="M28" t="s">
-        <v>365</v>
-      </c>
-      <c r="N28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B29" t="s">
-        <v>368</v>
-      </c>
-      <c r="C29" t="s">
-        <v>374</v>
-      </c>
-      <c r="D29" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="E29" t="s">
-        <v>370</v>
-      </c>
-      <c r="F29" t="s">
-        <v>371</v>
-      </c>
-      <c r="G29" t="s">
-        <v>396</v>
-      </c>
-      <c r="H29" t="s">
-        <v>372</v>
-      </c>
-      <c r="I29" t="s">
-        <v>318</v>
-      </c>
-      <c r="J29" t="s">
-        <v>373</v>
-      </c>
-      <c r="K29" t="s">
-        <v>329</v>
-      </c>
-      <c r="L29" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="C30" t="s">
-        <v>377</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E30" t="s">
-        <v>379</v>
-      </c>
-      <c r="F30" t="s">
-        <v>371</v>
-      </c>
-      <c r="G30" t="s">
-        <v>396</v>
-      </c>
-      <c r="H30" t="s">
-        <v>380</v>
-      </c>
-      <c r="I30" t="s">
-        <v>318</v>
-      </c>
-      <c r="J30" t="s">
-        <v>373</v>
-      </c>
-      <c r="K30" t="s">
-        <v>329</v>
-      </c>
-      <c r="L30" t="s">
-        <v>381</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="N3" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
-    <hyperlink ref="D5" r:id="rId5" location="sprg482328"/>
-    <hyperlink ref="O5" r:id="rId6" location="abreadcrumb"/>
-    <hyperlink ref="D6" r:id="rId7"/>
-    <hyperlink ref="D7" r:id="rId8"/>
-    <hyperlink ref="B8" r:id="rId9" display="https://www3.eurelectric.org/the-five-dimensions-of-the-energy-union/"/>
-    <hyperlink ref="D8" r:id="rId10"/>
-    <hyperlink ref="D9" r:id="rId11"/>
-    <hyperlink ref="D10" r:id="rId12"/>
-    <hyperlink ref="D11" r:id="rId13"/>
-    <hyperlink ref="D12" r:id="rId14" location="electricity"/>
-    <hyperlink ref="D13" r:id="rId15"/>
-    <hyperlink ref="D14" r:id="rId16"/>
-    <hyperlink ref="D15" r:id="rId17" location="statistical-factsheet"/>
-    <hyperlink ref="D16" r:id="rId18"/>
-    <hyperlink ref="D22" r:id="rId19"/>
-    <hyperlink ref="D23" r:id="rId20"/>
-    <hyperlink ref="N23" r:id="rId21"/>
-    <hyperlink ref="N25" r:id="rId22"/>
-    <hyperlink ref="D26" r:id="rId23"/>
-    <hyperlink ref="D27" r:id="rId24"/>
-    <hyperlink ref="D28" r:id="rId25"/>
-    <hyperlink ref="D29" r:id="rId26"/>
-    <hyperlink ref="D30" r:id="rId27"/>
-    <hyperlink ref="D25" r:id="rId28"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D5" r:id="rId5" location="sprg482328" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="O5" r:id="rId6" location="abreadcrumb" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A8" r:id="rId9" display="https://www3.eurelectric.org/the-five-dimensions-of-the-energy-union/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D10" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D12" r:id="rId14" location="electricity" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D13" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D14" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D15" r:id="rId17" location="statistical-factsheet" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="N21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="N23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D23" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
@@ -3408,614 +3852,2005 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="E10:R106"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="Q60" sqref="Q60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="5:7" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="22"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="5:7" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="22"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="5:7" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="22"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="5:7" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="22"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="5:7" ht="91.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="22"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="5:7" ht="131.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="22"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="5:7" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="22"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="5:7" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="22"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="5:7" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="22"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="5:7" ht="91.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="22"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="5:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="22"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="5:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="22"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="36" spans="5:7" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="22"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="5:7" ht="184.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="22"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="5:7" ht="223.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E41" s="22"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" spans="5:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="G42" s="23"/>
+    </row>
+    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E43" s="22"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="23"/>
+    </row>
+    <row r="44" spans="5:7" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E45" s="22"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="5:7" ht="91.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E47" s="22"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+    </row>
+    <row r="48" spans="5:7" ht="184.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E49" s="22"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E61" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="I61" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="J61" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="K61" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+    </row>
+    <row r="63" spans="5:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E63" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="I63" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="J63" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="K63" s="21" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E64" s="22"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+    </row>
+    <row r="65" spans="5:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E65" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="J65" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="K65" s="21" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="66" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E66" s="22"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+    </row>
+    <row r="67" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E67" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="J67" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="K67" s="21" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="68" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E68" s="22"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+    </row>
+    <row r="69" spans="5:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="H69" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I69" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="J69" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K69" s="21" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="70" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E70" s="22"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+    </row>
+    <row r="71" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E71" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="H71" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I71" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="J71" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="K71" s="21"/>
+    </row>
+    <row r="72" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E72" s="22"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+    </row>
+    <row r="73" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E73" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="H73" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="I73" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="J73" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K73" s="21" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="74" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E74" s="22"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+    </row>
+    <row r="75" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E75" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="H75" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I75" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J75" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K75" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="76" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E76" s="22"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+    </row>
+    <row r="77" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E77" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H77" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I77" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J77" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="K77" s="21" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="78" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E78" s="22"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+    </row>
+    <row r="79" spans="5:11" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E79" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H79" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I79" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J79" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="K79" s="21" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="80" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E80" s="22"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+    </row>
+    <row r="81" spans="5:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E81" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H81" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I81" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J81" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K81" s="21" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="82" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E82" s="22"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+    </row>
+    <row r="83" spans="5:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E83" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="G83" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="H83" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I83" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="J83" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K83" s="21" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="84" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E84" s="22"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+    </row>
+    <row r="85" spans="5:18" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E85" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="G85" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="H85" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I85" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="J85" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="K85" s="21" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="86" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E86" s="22"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+    </row>
+    <row r="87" spans="5:18" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="M87" s="23"/>
+      <c r="N87" s="23"/>
+      <c r="O87" s="23"/>
+      <c r="P87" s="23"/>
+      <c r="Q87" s="23"/>
+    </row>
+    <row r="88" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="23"/>
+      <c r="N88" s="23"/>
+      <c r="O88" s="23"/>
+      <c r="P88" s="23"/>
+      <c r="Q88" s="23"/>
+    </row>
+    <row r="89" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="M89" s="23"/>
+      <c r="N89" s="23"/>
+      <c r="O89" s="23"/>
+      <c r="P89" s="23"/>
+      <c r="Q89" s="23"/>
+    </row>
+    <row r="90" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="23"/>
+      <c r="N90" s="23"/>
+      <c r="O90" s="23"/>
+      <c r="P90" s="23"/>
+      <c r="Q90" s="23"/>
+    </row>
+    <row r="91" spans="5:18" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E91" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="G91" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H91" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="I91" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="J91" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="K91" s="21" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="92" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E92" s="22"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+    </row>
+    <row r="93" spans="5:18" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E93" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="G93" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="H93" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I93" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J93" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="K93" s="21" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="94" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E94" s="22"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+    </row>
+    <row r="95" spans="5:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E95" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="G95" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="H95" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I95" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J95" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K95" s="21" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="96" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E96" s="22"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+    </row>
+    <row r="97" spans="5:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E97" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="F97" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="G97" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="H97" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I97" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J97" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K97" s="21" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="98" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E98" s="22"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+    </row>
+    <row r="99" spans="5:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E99" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="F99" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="G99" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H99" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I99" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J99" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K99" s="21" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="100" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E100" s="22"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+    </row>
+    <row r="101" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E101" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="F101" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="G101" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="H101" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="I101" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="J101" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="K101" s="21" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="102" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E102" s="22"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+    </row>
+    <row r="103" spans="5:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E103" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="F103" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="G103" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="H103" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="I103" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="J103" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="K103" s="21" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="104" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E104" s="22"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+    </row>
+    <row r="105" spans="5:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E105" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="F105" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="G105" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H105" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="I105" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="J105" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="K105" s="21" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="106" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E106" s="22"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="221">
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="E85:E90"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G90"/>
+    <mergeCell ref="H85:H90"/>
+    <mergeCell ref="I85:I90"/>
+    <mergeCell ref="J85:J90"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="Q87:Q88"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="P89:P90"/>
+    <mergeCell ref="Q89:Q90"/>
+    <mergeCell ref="K85:K90"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="J103:J104"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="109.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="126.44140625" customWidth="1"/>
+    <col min="9" max="9" width="81.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-    </row>
-    <row r="2" spans="1:14" ht="21" thickBot="1">
-      <c r="A2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="H2" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="F3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I10" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J2" s="7" t="s">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="124.2">
-      <c r="A3" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C12" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="E12" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="I12" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="41.4">
-      <c r="A4" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="28.2" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="G14" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="27.6">
-      <c r="A6" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="D15" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="26" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="27.6">
-      <c r="A7" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="I15" s="27"/>
+      <c r="J15" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="1:14" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="25"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="1:14" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="14"/>
+      <c r="N17" s="25"/>
+    </row>
+    <row r="18" spans="1:14" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="193.2">
-      <c r="A8" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="E20" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D22" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="I23" t="s">
+        <v>398</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="55.8" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="165.6">
-      <c r="A10" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="83.4" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="21"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:14" ht="27.6">
-      <c r="A14" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="110.4" customHeight="1">
-      <c r="A15" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="L15" s="18"/>
-    </row>
-    <row r="16" spans="1:14" ht="82.8" customHeight="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="18"/>
-      <c r="N16" s="18"/>
-    </row>
-    <row r="17" spans="1:14" ht="55.8" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="14"/>
-      <c r="N17" s="18"/>
-    </row>
-    <row r="18" spans="1:14" ht="55.8" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="276">
-      <c r="A19" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="42" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="27.6">
-      <c r="A22" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="27.6">
-      <c r="A23" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="D25" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="K25" t="s">
         <v>404</v>
       </c>
-      <c r="D23" s="8" t="s">
+    </row>
+    <row r="26" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="B26" t="s">
+        <v>405</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F23" s="8" t="s">
+    </row>
+    <row r="27" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="K27" t="s">
         <v>407</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="I23" t="s">
-        <v>410</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -4047,438 +5882,440 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
-    <hyperlink ref="K6" r:id="rId2"/>
-    <hyperlink ref="I8" r:id="rId3"/>
-    <hyperlink ref="K9" r:id="rId4"/>
-    <hyperlink ref="I10" r:id="rId5"/>
-    <hyperlink ref="I12" r:id="rId6"/>
-    <hyperlink ref="K23" r:id="rId7"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="K6" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="I8" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="K9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="I10" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="I12" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="K23" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="K24" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="K26" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" thickBot="1">
-      <c r="A1" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" thickBot="1">
+    <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="41.4">
-      <c r="A3" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="E19" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="55.2">
-      <c r="A4" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="41.4">
-      <c r="A5" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="69">
-      <c r="A6" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="69">
-      <c r="A7" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="69">
-      <c r="A8" s="21"/>
-      <c r="B8" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" ht="55.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" ht="110.4">
-      <c r="A10" s="21"/>
-      <c r="B10" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:7" ht="82.8">
-      <c r="A11" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="69">
-      <c r="A12" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="55.2">
-      <c r="A13" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="69">
-      <c r="A14" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="96.6">
-      <c r="A15" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="21" t="s">
+      <c r="E21" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="27.6">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" ht="27.6">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" ht="96.6">
-      <c r="A19" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="27.6">
-      <c r="A20" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="41.4">
-      <c r="A21" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>272</v>
       </c>
     </row>
   </sheetData>
